--- a/output/1Y_P41_1VAL-D.xlsx
+++ b/output/1Y_P41_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G2" s="1">
-        <v>666.1292999999999</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1085</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.0121</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.57</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1085</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E3" s="1">
+        <v>666.1292999999999</v>
+      </c>
       <c r="F3" s="1">
         <v>650.851</v>
       </c>
-      <c r="G3" s="1">
-        <v>1316.9803</v>
-      </c>
       <c r="H3" s="1">
-        <v>20129.7806</v>
+        <v>10181.6535</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.1863</v>
+        <v>10181.6535</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.0121</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20129.7806</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0091</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E4" s="1">
+        <v>1316.9803</v>
+      </c>
       <c r="F4" s="1">
         <v>606.2333</v>
       </c>
-      <c r="G4" s="1">
-        <v>1923.2136</v>
-      </c>
       <c r="H4" s="1">
-        <v>31559.3582</v>
+        <v>21611.2518</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5989</v>
+        <v>21611.2518</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.1863</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31559.3582</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0474</v>
+        <v>0.0708</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E5" s="1">
+        <v>1923.2136</v>
+      </c>
       <c r="F5" s="1">
         <v>589.2717</v>
       </c>
-      <c r="G5" s="1">
-        <v>2512.4853</v>
-      </c>
       <c r="H5" s="1">
-        <v>42416.0284</v>
+        <v>32467.8843</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.9205</v>
+        <v>32467.8843</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.5989</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42416.0284</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0206</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E6" s="1">
+        <v>2512.4853</v>
+      </c>
       <c r="F6" s="1">
         <v>555.8489</v>
       </c>
-      <c r="G6" s="1">
-        <v>3068.3342</v>
-      </c>
       <c r="H6" s="1">
-        <v>54914.5916</v>
+        <v>44966.4523</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2955</v>
+        <v>44966.4523</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.9205</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54914.5916</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0477</v>
+        <v>0.0588</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E7" s="1">
+        <v>3068.3342</v>
+      </c>
       <c r="F7" s="1">
         <v>548.3388</v>
       </c>
-      <c r="G7" s="1">
-        <v>3616.673</v>
-      </c>
       <c r="H7" s="1">
-        <v>65614.7674</v>
+        <v>55666.6403</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5898</v>
+        <v>55666.6403</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2955</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65614.7674</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0108</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E8" s="1">
+        <v>3616.673</v>
+      </c>
       <c r="F8" s="1">
         <v>522.4797</v>
       </c>
-      <c r="G8" s="1">
-        <v>4139.1527</v>
-      </c>
       <c r="H8" s="1">
-        <v>78810.2959</v>
+        <v>68862.17819999999</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9117</v>
+        <v>68862.17819999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.5898</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78810.2959</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0423</v>
+        <v>0.0487</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>20.979</v>
       </c>
+      <c r="E9" s="1">
+        <v>4139.1527</v>
+      </c>
       <c r="F9" s="1">
         <v>476.6671</v>
       </c>
-      <c r="G9" s="1">
-        <v>4615.8199</v>
-      </c>
       <c r="H9" s="1">
-        <v>96333.5456</v>
+        <v>86385.3594</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3317</v>
+        <v>86385.3594</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9117</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>96333.5456</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0847</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E10" s="1">
+        <v>4615.8199</v>
+      </c>
       <c r="F10" s="1">
         <v>446.606</v>
       </c>
-      <c r="G10" s="1">
-        <v>5062.4259</v>
-      </c>
       <c r="H10" s="1">
-        <v>112766.0431</v>
+        <v>102817.8494</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.778</v>
+        <v>102817.8494</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3317</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>112766.0431</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0605</v>
+        <v>0.0667</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E11" s="1">
+        <v>5062.4259</v>
+      </c>
       <c r="F11" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G11" s="1">
-        <v>5492.4724</v>
-      </c>
       <c r="H11" s="1">
-        <v>127055.7159</v>
+        <v>117107.5796</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.2067</v>
+        <v>117107.5796</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.778</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>127055.7159</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0349</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>22.965</v>
       </c>
+      <c r="E12" s="1">
+        <v>5492.4724</v>
+      </c>
       <c r="F12" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G12" s="1">
-        <v>5927.9176</v>
-      </c>
       <c r="H12" s="1">
-        <v>135428.6133</v>
+        <v>125480.4749</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.5563</v>
+        <v>125480.4749</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.2067</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>135428.6133</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0119</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E13" s="1">
+        <v>5927.9176</v>
+      </c>
       <c r="F13" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G13" s="1">
-        <v>6428.749</v>
-      </c>
       <c r="H13" s="1">
-        <v>127696.1702</v>
+        <v>117748.0062</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.6662</v>
+        <v>117748.0062</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.5563</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127696.1702</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.1219</v>
+        <v>-0.1309</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E14" s="1">
+        <v>6428.749</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6428.749</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-5927.9176</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116678.5801</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.6662</v>
+        <v>116678.5801</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.1106</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116678.5801</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116678.5801</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116678.5801</v>
+        <v>107588.741</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1526</v>
+        <v>-0.0867</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.0121</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>666.1292999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1085</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.0121</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.57</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1085</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.3645</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>666.1292999999999</v>
       </c>
       <c r="F3" s="1">
         <v>642.3602</v>
       </c>
       <c r="G3" s="1">
-        <v>1308.4895</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10181.6535</v>
       </c>
       <c r="I3" s="1">
-        <v>19869.5426</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.1851</v>
+        <v>10181.6535</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9869.542600000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.8163</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9869.542600000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>130.4574</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20130.4574</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0091</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.4953</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1308.4895</v>
       </c>
       <c r="F4" s="1">
         <v>519.6975</v>
       </c>
       <c r="G4" s="1">
-        <v>1828.187</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21471.9198</v>
       </c>
       <c r="I4" s="1">
-        <v>28442.1089</v>
+        <v>130.4574</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5575</v>
+        <v>21602.3772</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18442.1089</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.0942</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8572.5663</v>
       </c>
-      <c r="O4" s="1">
-        <v>1557.8911</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31557.8911</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0474</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.9701</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1828.187</v>
       </c>
       <c r="F5" s="1">
         <v>541.1865</v>
       </c>
       <c r="G5" s="1">
-        <v>2369.3735</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30863.6355</v>
       </c>
       <c r="I5" s="1">
-        <v>37626.0978</v>
+        <v>1557.8911</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8802</v>
+        <v>32421.5266</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27626.0978</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.1112</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9183.9889</v>
       </c>
-      <c r="O5" s="1">
-        <v>2373.9022</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42373.9022</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0196</v>
+        <v>0.0259</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.9905</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2369.3735</v>
       </c>
       <c r="F6" s="1">
         <v>424.3596</v>
       </c>
       <c r="G6" s="1">
-        <v>2793.7331</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42405.151</v>
       </c>
       <c r="I6" s="1">
-        <v>45260.5395</v>
+        <v>2373.9022</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2007</v>
+        <v>44779.0532</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35260.5395</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.8818</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7634.4417</v>
       </c>
-      <c r="O6" s="1">
-        <v>4739.4605</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54739.4605</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0452</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.2369</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2793.7331</v>
       </c>
       <c r="F7" s="1">
         <v>513.4551</v>
       </c>
       <c r="G7" s="1">
-        <v>3307.1882</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50684.744</v>
       </c>
       <c r="I7" s="1">
-        <v>54624.3684</v>
+        <v>4739.4605</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5169</v>
+        <v>55424.2044</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44624.3684</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.973</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9363.8289</v>
       </c>
-      <c r="O7" s="1">
-        <v>5375.6316</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65375.6316</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0098</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>19.1395</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3307.1882</v>
       </c>
       <c r="F8" s="1">
         <v>369.2438</v>
       </c>
       <c r="G8" s="1">
-        <v>3676.432</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62969.5243</v>
       </c>
       <c r="I8" s="1">
-        <v>61691.5101</v>
+        <v>5375.6316</v>
       </c>
       <c r="J8" s="1">
-        <v>16.7803</v>
+        <v>68345.1559</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>51691.5101</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.63</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7067.1416</v>
       </c>
-      <c r="O8" s="1">
-        <v>8308.4899</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78308.4899</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0389</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>20.979</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3676.432</v>
       </c>
       <c r="F9" s="1">
         <v>156.7664</v>
       </c>
       <c r="G9" s="1">
-        <v>3833.1984</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>76728.2381</v>
       </c>
       <c r="I9" s="1">
-        <v>64980.3124</v>
+        <v>8308.4899</v>
       </c>
       <c r="J9" s="1">
-        <v>16.952</v>
+        <v>85036.72809999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>54980.3124</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.9548</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-3288.8024</v>
       </c>
-      <c r="O9" s="1">
-        <v>15019.6876</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95019.6876</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.076</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>22.3911</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>3833.1984</v>
       </c>
       <c r="F10" s="1">
         <v>207.1875</v>
       </c>
       <c r="G10" s="1">
-        <v>4040.3859</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>85384.8771</v>
       </c>
       <c r="I10" s="1">
-        <v>69619.4691</v>
+        <v>15019.6876</v>
       </c>
       <c r="J10" s="1">
-        <v>17.2309</v>
+        <v>100404.5647</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>59619.4691</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.5535</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4639.1567</v>
       </c>
-      <c r="O10" s="1">
-        <v>20380.5309</v>
-      </c>
-      <c r="P10" s="1">
-        <v>110380.5309</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.051</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>23.2533</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4040.3859</v>
       </c>
       <c r="F11" s="1">
         <v>282.499</v>
       </c>
       <c r="G11" s="1">
-        <v>4322.8849</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93465.0349</v>
       </c>
       <c r="I11" s="1">
-        <v>76188.50350000001</v>
+        <v>20380.5309</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6245</v>
+        <v>113845.5659</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>66188.50350000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.3817</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6569.0344</v>
       </c>
-      <c r="O11" s="1">
-        <v>23811.4965</v>
-      </c>
-      <c r="P11" s="1">
-        <v>123811.4965</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0285</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>22.965</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>4322.8849</v>
       </c>
       <c r="F12" s="1">
         <v>491.9834</v>
       </c>
       <c r="G12" s="1">
-        <v>4814.8683</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>98760.1966</v>
       </c>
       <c r="I12" s="1">
-        <v>87486.90210000001</v>
+        <v>23811.4965</v>
       </c>
       <c r="J12" s="1">
-        <v>18.1702</v>
+        <v>122571.6931</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>77486.90210000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.9248</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11298.3986</v>
       </c>
-      <c r="O12" s="1">
-        <v>22513.0979</v>
-      </c>
-      <c r="P12" s="1">
-        <v>132513.0979</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0097</v>
+        <v>-0.0103</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>19.9668</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>4814.8683</v>
       </c>
       <c r="F13" s="1">
         <v>1226.4239</v>
       </c>
       <c r="G13" s="1">
-        <v>6041.2922</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>95639.1738</v>
       </c>
       <c r="I13" s="1">
-        <v>111974.6633</v>
+        <v>22513.0979</v>
       </c>
       <c r="J13" s="1">
-        <v>18.5349</v>
+        <v>118152.2716</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101974.6633</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>21.1791</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-24487.7611</v>
       </c>
-      <c r="O13" s="1">
-        <v>8025.3367</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128025.3367</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.1017</v>
+        <v>-0.1088</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.2441</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6041.2922</v>
       </c>
       <c r="F14" s="1">
         <v>-6041.2922</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109646.4334</v>
       </c>
       <c r="I14" s="1">
-        <v>111974.6633</v>
+        <v>8025.3367</v>
       </c>
       <c r="J14" s="1">
-        <v>18.5349</v>
+        <v>117671.7701</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101974.6633</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.8796</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>109646.4334</v>
       </c>
-      <c r="O14" s="1">
-        <v>117671.7701</v>
-      </c>
-      <c r="P14" s="1">
-        <v>117671.7701</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1475</v>
+        <v>-0.0818</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.0121</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>666.1292999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1085</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.0121</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.57</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1085</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.3645</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>666.1292999999999</v>
       </c>
       <c r="F3" s="1">
         <v>645.6314</v>
       </c>
       <c r="G3" s="1">
-        <v>1311.7607</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10181.6535</v>
       </c>
       <c r="I3" s="1">
-        <v>19919.8034</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.1855</v>
+        <v>10181.6535</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9919.803400000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.8917</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9919.803400000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>80.1966</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20130.1966</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0091</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.4953</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1311.7607</v>
       </c>
       <c r="F4" s="1">
         <v>525.5825</v>
       </c>
       <c r="G4" s="1">
-        <v>1837.3432</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21525.5996</v>
       </c>
       <c r="I4" s="1">
-        <v>28589.4436</v>
+        <v>80.1966</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5602</v>
+        <v>21605.7963</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18589.4436</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.1714</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8669.6402</v>
       </c>
-      <c r="O4" s="1">
-        <v>1410.5564</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31560.8064</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0475</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.9701</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1837.3432</v>
       </c>
       <c r="F5" s="1">
         <v>549.8599</v>
       </c>
       <c r="G5" s="1">
-        <v>2387.2031</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31018.2109</v>
       </c>
       <c r="I5" s="1">
-        <v>37920.6216</v>
+        <v>1410.5564</v>
       </c>
       <c r="J5" s="1">
-        <v>15.885</v>
+        <v>32428.7673</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27920.6216</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.1962</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9331.178</v>
       </c>
-      <c r="O5" s="1">
-        <v>2079.3784</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42380.3796</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0197</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.9905</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2387.2031</v>
       </c>
       <c r="F6" s="1">
         <v>434.6074</v>
       </c>
       <c r="G6" s="1">
-        <v>2821.8105</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42724.2511</v>
       </c>
       <c r="I6" s="1">
-        <v>45739.4256</v>
+        <v>2079.3784</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2092</v>
+        <v>44803.6295</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35739.4256</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.9713</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7818.804</v>
       </c>
-      <c r="O6" s="1">
-        <v>4260.5744</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54763.0806</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0455</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.2369</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2821.8105</v>
       </c>
       <c r="F7" s="1">
         <v>526.9942</v>
       </c>
       <c r="G7" s="1">
-        <v>3348.8047</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51194.132</v>
       </c>
       <c r="I7" s="1">
-        <v>55350.1661</v>
+        <v>4260.5744</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5283</v>
+        <v>55454.7064</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45350.1661</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.0713</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9610.740400000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>4649.8339</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65404.8527</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.009900000000000001</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>19.1395</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3348.8047</v>
       </c>
       <c r="F8" s="1">
         <v>383.2356</v>
       </c>
       <c r="G8" s="1">
-        <v>3732.0403</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63761.9105</v>
       </c>
       <c r="I8" s="1">
-        <v>62685.1048</v>
+        <v>4649.8339</v>
       </c>
       <c r="J8" s="1">
-        <v>16.7965</v>
+        <v>68411.7444</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52685.1048</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.7325</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7334.9387</v>
       </c>
-      <c r="O8" s="1">
-        <v>7314.8952</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78373.6891</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0394</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>20.979</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3732.0403</v>
       </c>
       <c r="F9" s="1">
         <v>168.9141</v>
       </c>
       <c r="G9" s="1">
-        <v>3900.9544</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>77888.8009</v>
       </c>
       <c r="I9" s="1">
-        <v>66228.7527</v>
+        <v>7314.8952</v>
       </c>
       <c r="J9" s="1">
-        <v>16.9776</v>
+        <v>85203.6961</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>56228.7527</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.0665</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-3543.648</v>
       </c>
-      <c r="O9" s="1">
-        <v>13771.2473</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95185.3351</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0771</v>
+        <v>0.0866</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>22.3911</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>3900.9544</v>
       </c>
       <c r="F10" s="1">
         <v>221.1891</v>
       </c>
       <c r="G10" s="1">
-        <v>4122.1435</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>86894.1485</v>
       </c>
       <c r="I10" s="1">
-        <v>71181.4204</v>
+        <v>13771.2473</v>
       </c>
       <c r="J10" s="1">
-        <v>17.2681</v>
+        <v>100665.3958</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>61181.4204</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.6837</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-4952.6677</v>
       </c>
-      <c r="O10" s="1">
-        <v>18818.5796</v>
-      </c>
-      <c r="P10" s="1">
-        <v>110639.7379</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0519</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>23.2533</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>4122.1435</v>
       </c>
       <c r="F11" s="1">
         <v>299.3146</v>
       </c>
       <c r="G11" s="1">
-        <v>4421.4581</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95356.3085</v>
       </c>
       <c r="I11" s="1">
-        <v>78141.4733</v>
+        <v>18818.5796</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6732</v>
+        <v>114174.8881</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>68141.4733</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.5306</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6960.0529</v>
       </c>
-      <c r="O11" s="1">
-        <v>21858.5267</v>
-      </c>
-      <c r="P11" s="1">
-        <v>124138.7908</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.029</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>22.965</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>4421.4581</v>
       </c>
       <c r="F12" s="1">
         <v>515.6057</v>
       </c>
       <c r="G12" s="1">
-        <v>4937.0638</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>101012.1899</v>
       </c>
       <c r="I12" s="1">
-        <v>89982.35739999999</v>
+        <v>21858.5267</v>
       </c>
       <c r="J12" s="1">
-        <v>18.2259</v>
+        <v>122870.7166</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>79982.35739999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.0896</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11840.8841</v>
       </c>
-      <c r="O12" s="1">
-        <v>20017.6426</v>
-      </c>
-      <c r="P12" s="1">
-        <v>132809.308</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.009900000000000001</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>19.9668</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>4937.0638</v>
       </c>
       <c r="F13" s="1">
         <v>1273.1643</v>
       </c>
       <c r="G13" s="1">
-        <v>6210.2281</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>98066.379</v>
       </c>
       <c r="I13" s="1">
-        <v>115403.3747</v>
+        <v>20017.6426</v>
       </c>
       <c r="J13" s="1">
-        <v>18.5828</v>
+        <v>118084.0215</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105403.3747</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>21.3494</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-25421.0173</v>
       </c>
-      <c r="O13" s="1">
-        <v>4596.6253</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127952.249</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.104</v>
+        <v>-0.1113</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.2441</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6210.2281</v>
       </c>
       <c r="F14" s="1">
         <v>-6210.2281</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112712.5348</v>
       </c>
       <c r="I14" s="1">
-        <v>115403.3747</v>
+        <v>4596.6253</v>
       </c>
       <c r="J14" s="1">
-        <v>18.5828</v>
+        <v>117309.1601</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105403.3747</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.9725</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>112712.5348</v>
       </c>
-      <c r="O14" s="1">
-        <v>117309.1601</v>
-      </c>
-      <c r="P14" s="1">
-        <v>117309.1601</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1496</v>
+        <v>-0.08409999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.0121</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>666.1292999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1085</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.0121</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.57</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1085</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.3645</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>666.1292999999999</v>
       </c>
       <c r="F3" s="1">
         <v>648.9026</v>
       </c>
       <c r="G3" s="1">
-        <v>1315.0319</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10181.6535</v>
       </c>
       <c r="I3" s="1">
-        <v>19970.0641</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.186</v>
+        <v>10181.6535</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9970.0641</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.9672</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9970.0641</v>
       </c>
-      <c r="O3" s="1">
-        <v>29.9359</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20129.9359</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0091</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.4953</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1315.0319</v>
       </c>
       <c r="F4" s="1">
         <v>531.4979</v>
       </c>
       <c r="G4" s="1">
-        <v>1846.5298</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21579.2794</v>
       </c>
       <c r="I4" s="1">
-        <v>28737.2809</v>
+        <v>29.9359</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5629</v>
+        <v>21609.2153</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18737.2809</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2485</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8767.2168</v>
       </c>
-      <c r="O4" s="1">
-        <v>1262.7191</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31563.7191</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0476</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.9701</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1846.5298</v>
       </c>
       <c r="F5" s="1">
         <v>558.6218</v>
       </c>
       <c r="G5" s="1">
-        <v>2405.1516</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31173.3007</v>
       </c>
       <c r="I5" s="1">
-        <v>38217.1489</v>
+        <v>1262.7191</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8897</v>
+        <v>32436.0198</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28217.1489</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.2812</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9479.868</v>
       </c>
-      <c r="O5" s="1">
-        <v>1782.8511</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42386.8611</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0198</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.9905</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2405.1516</v>
       </c>
       <c r="F6" s="1">
         <v>445.0177</v>
       </c>
       <c r="G6" s="1">
-        <v>2850.1693</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>43045.4794</v>
       </c>
       <c r="I6" s="1">
-        <v>46223.2398</v>
+        <v>1782.8511</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2177</v>
+        <v>44828.3305</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36223.2398</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.0607</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8006.0909</v>
       </c>
-      <c r="O6" s="1">
-        <v>3776.7602</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54786.8103</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0458</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.2369</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2850.1693</v>
       </c>
       <c r="F7" s="1">
         <v>540.8093</v>
       </c>
       <c r="G7" s="1">
-        <v>3390.9786</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51708.6266</v>
       </c>
       <c r="I7" s="1">
-        <v>56085.9243</v>
+        <v>3776.7602</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5397</v>
+        <v>55485.3868</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46085.9243</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.1695</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9862.684600000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>3914.0757</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65434.2263</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>19.1395</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3390.9786</v>
       </c>
       <c r="F8" s="1">
         <v>397.6031</v>
       </c>
       <c r="G8" s="1">
-        <v>3788.5816</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>64564.9103</v>
       </c>
       <c r="I8" s="1">
-        <v>63695.8482</v>
+        <v>3914.0757</v>
       </c>
       <c r="J8" s="1">
-        <v>16.8126</v>
+        <v>68478.9859</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53695.8482</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.8349</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7609.9238</v>
       </c>
-      <c r="O8" s="1">
-        <v>6304.1518</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78439.5039</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0398</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>20.979</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3788.5816</v>
       </c>
       <c r="F9" s="1">
         <v>181.4957</v>
       </c>
       <c r="G9" s="1">
-        <v>3970.0774</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>79068.8354</v>
       </c>
       <c r="I9" s="1">
-        <v>67503.447</v>
+        <v>6304.1518</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0031</v>
+        <v>85372.9872</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>57503.447</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.1781</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-3807.5989</v>
       </c>
-      <c r="O9" s="1">
-        <v>12496.553</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95353.2586</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.07820000000000001</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>22.3911</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>3970.0774</v>
       </c>
       <c r="F10" s="1">
         <v>235.7521</v>
       </c>
       <c r="G10" s="1">
-        <v>4205.8295</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>88433.8703</v>
       </c>
       <c r="I10" s="1">
-        <v>72782.1966</v>
+        <v>12496.553</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3051</v>
+        <v>100930.4233</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>62782.1966</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.8138</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5278.7496</v>
       </c>
-      <c r="O10" s="1">
-        <v>17217.8034</v>
-      </c>
-      <c r="P10" s="1">
-        <v>110903.0761</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0527</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>23.2533</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>4205.8295</v>
       </c>
       <c r="F11" s="1">
         <v>316.8646</v>
       </c>
       <c r="G11" s="1">
-        <v>4522.6941</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>97292.1921</v>
       </c>
       <c r="I11" s="1">
-        <v>80150.3438</v>
+        <v>17217.8034</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7218</v>
+        <v>114509.9954</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>70150.3438</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6793</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7368.1472</v>
       </c>
-      <c r="O11" s="1">
-        <v>19849.6562</v>
-      </c>
-      <c r="P11" s="1">
-        <v>124471.7816</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0295</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>22.965</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>4522.6941</v>
       </c>
       <c r="F12" s="1">
         <v>540.2864</v>
       </c>
       <c r="G12" s="1">
-        <v>5062.9805</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>103325.0167</v>
       </c>
       <c r="I12" s="1">
-        <v>92558.02190000001</v>
+        <v>19849.6562</v>
       </c>
       <c r="J12" s="1">
-        <v>18.2813</v>
+        <v>123174.6729</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>82558.02190000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.2542</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12407.678</v>
       </c>
-      <c r="O12" s="1">
-        <v>17441.9781</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133110.3248</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0101</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>19.9668</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>5062.9805</v>
       </c>
       <c r="F13" s="1">
         <v>1321.9117</v>
       </c>
       <c r="G13" s="1">
-        <v>6384.8922</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>100567.501</v>
       </c>
       <c r="I13" s="1">
-        <v>118952.3689</v>
+        <v>17441.9781</v>
       </c>
       <c r="J13" s="1">
-        <v>18.6303</v>
+        <v>118009.4791</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108952.3689</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>21.5194</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-26394.347</v>
       </c>
-      <c r="O13" s="1">
-        <v>1047.6311</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127872.6612</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.1065</v>
+        <v>-0.1139</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>18.2441</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6384.8922</v>
       </c>
       <c r="F14" s="1">
         <v>-6384.8922</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>115882.6018</v>
       </c>
       <c r="I14" s="1">
-        <v>118952.3689</v>
+        <v>1047.6311</v>
       </c>
       <c r="J14" s="1">
-        <v>18.6303</v>
+        <v>116930.2329</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108952.3689</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0641</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>115882.6018</v>
       </c>
-      <c r="O14" s="1">
-        <v>116930.2329</v>
-      </c>
-      <c r="P14" s="1">
-        <v>116930.2329</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1519</v>
+        <v>-0.0866</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.0121</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>666.1292999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1085</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.0121</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.57</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1085</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.3645</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>666.1292999999999</v>
       </c>
       <c r="F3" s="1">
         <v>652.1738</v>
       </c>
       <c r="G3" s="1">
-        <v>1318.3032</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10181.6535</v>
       </c>
       <c r="I3" s="1">
-        <v>20020.3248</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.1864</v>
+        <v>10181.6535</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10020.3248</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.0426</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10020.3248</v>
       </c>
-      <c r="O3" s="1">
-        <v>-20.3248</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20129.6752</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0091</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.4953</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1318.3032</v>
       </c>
       <c r="F4" s="1">
         <v>537.4438</v>
       </c>
       <c r="G4" s="1">
-        <v>1855.7469</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21632.9592</v>
       </c>
       <c r="I4" s="1">
-        <v>28885.6208</v>
+        <v>-20.3248</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5655</v>
+        <v>21612.6344</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18885.6208</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.3257</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8865.296</v>
       </c>
-      <c r="O4" s="1">
-        <v>1114.3792</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31566.6292</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0477</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.9701</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1855.7469</v>
       </c>
       <c r="F5" s="1">
         <v>567.4726000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2423.2195</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0338</v>
+        <v>31328.9048</v>
       </c>
       <c r="I5" s="1">
-        <v>38515.6873</v>
+        <v>1114.3792</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8944</v>
+        <v>32443.2841</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28515.6873</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.3662</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9630.066500000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1484.3127</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42393.3465</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0199</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.9905</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2423.2195</v>
       </c>
       <c r="F6" s="1">
         <v>455.5922</v>
       </c>
       <c r="G6" s="1">
-        <v>2878.8117</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>43368.8439</v>
       </c>
       <c r="I6" s="1">
-        <v>46712.0194</v>
+        <v>1484.3127</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2261</v>
+        <v>44853.1566</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36712.0194</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.1501</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8196.332200000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>3287.9806</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54810.6498</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0461</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.2369</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2878.8117</v>
       </c>
       <c r="F7" s="1">
         <v>554.9045</v>
       </c>
       <c r="G7" s="1">
-        <v>3433.7162</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>52228.266</v>
       </c>
       <c r="I7" s="1">
-        <v>56831.7567</v>
+        <v>3287.9806</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5511</v>
+        <v>55516.2466</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46831.7567</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2677</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10119.7372</v>
       </c>
-      <c r="O7" s="1">
-        <v>3168.2433</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65463.7526</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0101</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>19.1395</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3433.7162</v>
       </c>
       <c r="F8" s="1">
         <v>412.3538</v>
       </c>
       <c r="G8" s="1">
-        <v>3846.07</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>65378.6431</v>
       </c>
       <c r="I8" s="1">
-        <v>64724.0023</v>
+        <v>3168.2433</v>
       </c>
       <c r="J8" s="1">
-        <v>16.8286</v>
+        <v>68546.8864</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54724.0023</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.9373</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7892.2456</v>
       </c>
-      <c r="O8" s="1">
-        <v>5275.9977</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78505.9397</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0403</v>
+        <v>0.0463</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>20.979</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3846.07</v>
       </c>
       <c r="F9" s="1">
         <v>194.5231</v>
       </c>
       <c r="G9" s="1">
-        <v>4040.5931</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>80268.6346</v>
       </c>
       <c r="I9" s="1">
-        <v>68804.9034</v>
+        <v>5275.9977</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0284</v>
+        <v>85544.6324</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>58804.9034</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2896</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-4080.9011</v>
       </c>
-      <c r="O9" s="1">
-        <v>11195.0966</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95523.4877</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0793</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>22.3911</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4040.5931</v>
       </c>
       <c r="F10" s="1">
         <v>250.8945</v>
       </c>
       <c r="G10" s="1">
-        <v>4291.4877</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>90004.61629999999</v>
       </c>
       <c r="I10" s="1">
-        <v>74422.7077</v>
+        <v>11195.0966</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3419</v>
+        <v>101199.7129</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>64422.7077</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9439</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5617.8044</v>
       </c>
-      <c r="O10" s="1">
-        <v>15577.2923</v>
-      </c>
-      <c r="P10" s="1">
-        <v>111170.6092</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0535</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>23.2533</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>4291.4877</v>
       </c>
       <c r="F11" s="1">
         <v>335.1757</v>
       </c>
       <c r="G11" s="1">
-        <v>4626.6634</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>99273.69680000001</v>
       </c>
       <c r="I11" s="1">
-        <v>82216.6499</v>
+        <v>15577.2923</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7702</v>
+        <v>114850.989</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>72216.6499</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8279</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7793.9421</v>
       </c>
-      <c r="O11" s="1">
-        <v>17783.3501</v>
-      </c>
-      <c r="P11" s="1">
-        <v>124810.5668</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.03</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>22.965</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>4626.6634</v>
       </c>
       <c r="F12" s="1">
         <v>566.0681</v>
       </c>
       <c r="G12" s="1">
-        <v>5192.7315</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>105700.2896</v>
       </c>
       <c r="I12" s="1">
-        <v>95216.4039</v>
+        <v>17783.3501</v>
       </c>
       <c r="J12" s="1">
-        <v>18.3365</v>
+        <v>123483.6397</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>85216.4039</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.4185</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12999.754</v>
       </c>
-      <c r="O12" s="1">
-        <v>14783.5961</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133416.221</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0103</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>19.9668</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>5192.7315</v>
       </c>
       <c r="F13" s="1">
         <v>1241.2403</v>
       </c>
       <c r="G13" s="1">
-        <v>6433.9718</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>127799.9116</v>
+        <v>103144.7839</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>14783.5961</v>
       </c>
       <c r="J13" s="1">
-        <v>18.651</v>
+        <v>117928.38</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>21.1835</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-24783.5961</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127799.9116</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.1089</v>
+        <v>-0.1165</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>18.2441</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6433.9718</v>
       </c>
       <c r="F14" s="1">
         <v>-6433.9718</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116773.3708</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.651</v>
+        <v>116773.3708</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0967</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116773.3708</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116773.3708</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116773.3708</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1526</v>
+        <v>-0.0872</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.1949</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>18.6662</v>
+        <v>17.1106</v>
       </c>
       <c r="D3" s="1">
-        <v>18.5349</v>
+        <v>16.8796</v>
       </c>
       <c r="E3" s="1">
-        <v>18.5828</v>
+        <v>16.9725</v>
       </c>
       <c r="F3" s="1">
-        <v>18.6303</v>
+        <v>17.0641</v>
       </c>
       <c r="G3" s="1">
-        <v>18.651</v>
+        <v>17.0967</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2219</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0716</v>
+        <v>0.2062</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0668</v>
+        <v>0.1987</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0655</v>
+        <v>0.1976</v>
       </c>
       <c r="F4" s="3">
-        <v>0.064</v>
+        <v>0.1964</v>
       </c>
       <c r="G4" s="3">
-        <v>0.06419999999999999</v>
+        <v>0.1969</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.221</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2385</v>
+        <v>0.2199</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2176</v>
+        <v>0.1949</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2211</v>
+        <v>0.1985</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2246</v>
+        <v>0.2023</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2271</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.912</v>
       </c>
       <c r="C6" s="4">
-        <v>0.215</v>
+        <v>0.8453000000000001</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2134</v>
+        <v>0.9155</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2041</v>
+        <v>0.8928</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1946</v>
+        <v>0.87</v>
       </c>
       <c r="G6" s="4">
-        <v>0.1934</v>
+        <v>0.8601</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0507</v>
+        <v>-0.1852</v>
       </c>
       <c r="D7" s="3">
         <v>-0.0416</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
